--- a/data/trans_camb/P34A_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P34A_R-Edad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-4.317376694110009</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-6.041786392919402</v>
+        <v>-6.04178639291939</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-11.37498119644778</v>
@@ -664,7 +664,7 @@
         <v>-5.411079789286561</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-9.181163411484549</v>
+        <v>-9.181163411484553</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-14.56228119857952</v>
+        <v>-15.46969854067968</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-12.3006493350294</v>
+        <v>-12.11190476680197</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-17.86432181708807</v>
+        <v>-17.89252975423325</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-19.05821330616022</v>
+        <v>-19.23080842288984</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-11.09086404729687</v>
+        <v>-10.68970638575198</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-13.71934553835741</v>
+        <v>-14.68589225375158</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-15.50752902648486</v>
+        <v>-15.56324478391891</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-9.737579222066884</v>
+        <v>-9.670510398884725</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-14.72371291473257</v>
+        <v>-14.30520257410984</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-4.739030663613394</v>
+        <v>-4.533851619905414</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.8998010854158957</v>
+        <v>-1.020201328002714</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-3.705100923105845</v>
+        <v>-3.91672390297834</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-6.897227008048596</v>
+        <v>-6.25912219550239</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.440130945054471</v>
+        <v>2.309440821828858</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.42897816105175</v>
+        <v>2.638155425262502</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-7.105598964680926</v>
+        <v>-7.528616866276938</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-1.002979862797566</v>
+        <v>-0.9994997995750713</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-3.687358153472706</v>
+        <v>-2.813629233349555</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.1014443982616025</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.1419624527762436</v>
+        <v>-0.1419624527762433</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.3373949916891285</v>
@@ -769,7 +769,7 @@
         <v>-0.1604988341524185</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.2723238394347162</v>
+        <v>-0.2723238394347163</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5343121085509415</v>
+        <v>-0.5436035536516316</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4279841672962199</v>
+        <v>-0.4357947973257449</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6465027657736535</v>
+        <v>-0.6494348772656783</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.421359713781609</v>
+        <v>-0.4265802625148017</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2479846418364073</v>
+        <v>-0.2377324229383289</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3084686635518936</v>
+        <v>-0.3262300827567171</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4384475328100895</v>
+        <v>-0.4367595472981754</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2743974735400256</v>
+        <v>-0.2737026076010859</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.4212592320618448</v>
+        <v>-0.4103625809250318</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.2092374514018966</v>
+        <v>-0.206754072378053</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.02168617701690953</v>
+        <v>-0.05082728343900213</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.1489845743110653</v>
+        <v>-0.1540049958764339</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.1793185123307032</v>
+        <v>-0.1628668000944144</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.0604025445084337</v>
+        <v>0.05879393740978597</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08841712067361625</v>
+        <v>0.07264545536099311</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.2308840781621294</v>
+        <v>-0.2384111064190053</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.0338865482140599</v>
+        <v>-0.03167440884185602</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.1145180106948323</v>
+        <v>-0.08910244874596762</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-9.708485014665131</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-2.936331739504061</v>
+        <v>-2.936331739504055</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-16.86615370145556</v>
@@ -869,7 +869,7 @@
         <v>-7.820273204022632</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-6.771989906920862</v>
+        <v>-6.771989906920855</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-16.76250064592966</v>
@@ -878,7 +878,7 @@
         <v>-8.551237603442157</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-4.459203290136321</v>
+        <v>-4.459203290136326</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-21.74911515602757</v>
+        <v>-21.80931979799139</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-15.20283895284598</v>
+        <v>-15.07372665525286</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-8.938640698568857</v>
+        <v>-9.411690124740131</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-21.80781489067024</v>
+        <v>-21.98260535573804</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-12.85551852718779</v>
+        <v>-13.52760216119242</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-12.81517068568159</v>
+        <v>-12.36737236506079</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-20.17332714830019</v>
+        <v>-20.4520172640822</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-11.97741824032367</v>
+        <v>-12.82369784787048</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-8.589135815576412</v>
+        <v>-9.040943889144813</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-12.17009880052822</v>
+        <v>-12.27393413898985</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-4.265602632330669</v>
+        <v>-4.564169875883842</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.69497438065846</v>
+        <v>4.385831161655053</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-11.07343806519596</v>
+        <v>-11.58044427583132</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-1.968659327580332</v>
+        <v>-2.792951201898844</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-0.126740071283695</v>
+        <v>-0.8757586287637087</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-12.81681912595387</v>
+        <v>-13.39440365618595</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-4.444049886657603</v>
+        <v>-4.628089861117256</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1669451452505444</v>
+        <v>0.001957692093321436</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.2672273921313355</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.08082293704886594</v>
+        <v>-0.08082293704886578</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.3763492081350873</v>
@@ -974,7 +974,7 @@
         <v>-0.1745005814502902</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.1511093213118603</v>
+        <v>-0.1511093213118601</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.4165783925576055</v>
@@ -983,7 +983,7 @@
         <v>-0.212513686976954</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.1108192493429461</v>
+        <v>-0.1108192493429463</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5553619368648843</v>
+        <v>-0.560215315196653</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3899328580277872</v>
+        <v>-0.3865633398125081</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2363439565714111</v>
+        <v>-0.2471557753267251</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4654883367565713</v>
+        <v>-0.4715959688588165</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2721900450986616</v>
+        <v>-0.2863371256985063</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2720293733335062</v>
+        <v>-0.2652091424564977</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.48093988915882</v>
+        <v>-0.4819926671124651</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2909635421760368</v>
+        <v>-0.3027323025635645</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.207470478759657</v>
+        <v>-0.2154113863071664</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.3594685380323512</v>
+        <v>-0.3623743491172439</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.1307761071849726</v>
+        <v>-0.1312332352154829</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1352756550885484</v>
+        <v>0.1295601074201038</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.2670798647114534</v>
+        <v>-0.2692664054338676</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.04852044395396287</v>
+        <v>-0.06649602111989758</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.003548941718035538</v>
+        <v>-0.01962932869318791</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.336478757796649</v>
+        <v>-0.3434340153450736</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1158928920554745</v>
+        <v>-0.1208561623564239</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.003966479267401335</v>
+        <v>0.001082743855218025</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-9.823706697227308</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-4.98145220420268</v>
+        <v>-4.981452204202669</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-17.85429047023199</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-24.46511683039452</v>
+        <v>-25.09806823920042</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-14.70068614685508</v>
+        <v>-14.31525480181146</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-14.45327405261421</v>
+        <v>-14.40780711756872</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-21.91518982286707</v>
+        <v>-21.90137691345145</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-14.98395955609086</v>
+        <v>-15.60121920754339</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-10.12600017840035</v>
+        <v>-9.906970146593164</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-21.55205764028588</v>
+        <v>-21.44134850462388</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-13.24793416062547</v>
+        <v>-13.77525403962604</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-10.95426512624327</v>
+        <v>-10.43641620611573</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-13.66853394365127</v>
+        <v>-14.17387182124133</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-3.69327603507005</v>
+        <v>-3.530625681447761</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-3.048580501472697</v>
+        <v>-2.911979360348617</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-11.25262186044765</v>
+        <v>-10.94839085291081</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-4.011095691563225</v>
+        <v>-4.505996083753152</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4742814221774532</v>
+        <v>0.0467088175119109</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-14.10529544577907</v>
+        <v>-14.10198764908264</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-5.875889335119939</v>
+        <v>-6.049234761869437</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-3.48033193001336</v>
+        <v>-2.701077700010561</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.2201558932961747</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.1116377039471238</v>
+        <v>-0.1116377039471236</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.4012786971523234</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5222007840074526</v>
+        <v>-0.5359598161005202</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3093565433002273</v>
+        <v>-0.3065836031111205</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.313060886589655</v>
+        <v>-0.3091434634120402</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4601819013040592</v>
+        <v>-0.4632195529253345</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.331275137373739</v>
+        <v>-0.3311808367779127</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2112079171609411</v>
+        <v>-0.2096652270612394</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4617232636122482</v>
+        <v>-0.4641236038924326</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2873668603580795</v>
+        <v>-0.2932597535724935</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2367019446624432</v>
+        <v>-0.2270441849393029</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.3319860833349184</v>
+        <v>-0.3401417308592117</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.09307449785213509</v>
+        <v>-0.08797790634002439</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.07712731518491002</v>
+        <v>-0.06624700270090653</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.2683164227763268</v>
+        <v>-0.2601982414373136</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.1025486145337179</v>
+        <v>-0.1064219706362727</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0120907919273847</v>
+        <v>0.00208893806565187</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.3282553047397814</v>
+        <v>-0.3306682507798071</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.1365449361967389</v>
+        <v>-0.1429235980612317</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.08184254656915688</v>
+        <v>-0.06502930083710652</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-11.09280974518491</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-13.80406898464022</v>
+        <v>-13.80406898464021</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-15.6189696749138</v>
@@ -1297,7 +1297,7 @@
         <v>-5.859984615423341</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-8.963101032529385</v>
+        <v>-8.963101032529391</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-20.08145845248388</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-30.49495491626407</v>
+        <v>-29.87061600027295</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-17.12660962871771</v>
+        <v>-17.12395379632004</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-19.32946829943343</v>
+        <v>-19.48953364856068</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-21.51259816507158</v>
+        <v>-20.85870690003582</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-12.27298275061737</v>
+        <v>-11.64862229217084</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-14.1204142864786</v>
+        <v>-14.18703130527122</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-23.72925048939612</v>
+        <v>-24.44198547629055</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-12.58772745524759</v>
+        <v>-12.883054495935</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-15.08042789504499</v>
+        <v>-15.50250840153977</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-18.54930012066845</v>
+        <v>-18.2400951904668</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-4.976569480375752</v>
+        <v>-4.802040155145008</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-7.954067824115993</v>
+        <v>-7.676531620315247</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-9.340549967993978</v>
+        <v>-9.148965114622904</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.2147902104931836</v>
+        <v>-0.1365800703664367</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-3.729786235317051</v>
+        <v>-3.756841047033061</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-15.38253989456947</v>
+        <v>-16.13546574253423</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-4.468189195856838</v>
+        <v>-4.328419785818694</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-7.586427071192705</v>
+        <v>-7.825878190523129</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.2245983585924867</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.2794937718275964</v>
+        <v>-0.2794937718275962</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.354531668544988</v>
@@ -1402,7 +1402,7 @@
         <v>-0.1330145436347717</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.2034515227661767</v>
+        <v>-0.2034515227661768</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.4295482879363626</v>
@@ -1411,7 +1411,7 @@
         <v>-0.1819097685266785</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.244227422657167</v>
+        <v>-0.2442274226571668</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5810105940923124</v>
+        <v>-0.5732728468351018</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3240363563114745</v>
+        <v>-0.3234233623226601</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3709533072415969</v>
+        <v>-0.3705386023016106</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.455091121515505</v>
+        <v>-0.4542433942642478</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2608431432587159</v>
+        <v>-0.2477470430687738</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.294582310634071</v>
+        <v>-0.2970246162975225</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4891764645861773</v>
+        <v>-0.498625930167087</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2593366379243605</v>
+        <v>-0.2622457212956665</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3117058376970292</v>
+        <v>-0.3144269123682766</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.403433637104456</v>
+        <v>-0.3939622685469728</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.1093390555320671</v>
+        <v>-0.1037389581488443</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1755351174240267</v>
+        <v>-0.1701588012244074</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.2298188624891286</v>
+        <v>-0.2313988363590433</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.006011020202318624</v>
+        <v>-0.001360530728245076</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.09262620323027775</v>
+        <v>-0.09289965883402726</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.3518344825305133</v>
+        <v>-0.3612494545545227</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.1004652442712594</v>
+        <v>-0.09775312850236616</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.1735625364235432</v>
+        <v>-0.1774335205311914</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-14.73748007016399</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-11.00650136437527</v>
+        <v>-11.00650136437526</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-18.34438356079183</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-32.24494460925892</v>
+        <v>-32.68997476987273</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-21.24990549977317</v>
+        <v>-22.21470809669425</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-17.34317889113497</v>
+        <v>-17.1988202722534</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-25.20255283234552</v>
+        <v>-24.16273614596466</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-5.24292268823312</v>
+        <v>-4.600999590519596</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-11.78815669103176</v>
+        <v>-12.00776666149694</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-26.49021430847541</v>
+        <v>-26.45934952132166</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-10.78183261111039</v>
+        <v>-10.53450037366392</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-13.23417359980655</v>
+        <v>-12.95308118903122</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-18.90613925606983</v>
+        <v>-19.30413049118278</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-7.843015828185078</v>
+        <v>-7.818619106718917</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-4.665403908987013</v>
+        <v>-4.586336049376047</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-11.58411114614419</v>
+        <v>-11.42768822199103</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>8.799992894291174</v>
+        <v>8.975060741739931</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-1.002418092079868</v>
+        <v>-0.8160159619874408</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-17.22238124610264</v>
+        <v>-17.3066581145898</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-1.360864914155122</v>
+        <v>-0.850130287520708</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-4.445881024098927</v>
+        <v>-4.636435647138883</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.2917904950812879</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.2179200560023689</v>
+        <v>-0.2179200560023687</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.418309322945955</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5959984987839925</v>
+        <v>-0.611492922292374</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3915778814129227</v>
+        <v>-0.4075714184176918</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.316120182132754</v>
+        <v>-0.3205010446938536</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.532622767514864</v>
+        <v>-0.5182899101976267</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1095811467263885</v>
+        <v>-0.09985482096183819</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2457116722722117</v>
+        <v>-0.2516048279262024</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.5373141910810753</v>
+        <v>-0.5413574609007686</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2177122338683483</v>
+        <v>-0.2128754562660771</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.2648462821574871</v>
+        <v>-0.2596690510806524</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.3987736402052585</v>
+        <v>-0.4112038592219818</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.1703334256955018</v>
+        <v>-0.1687770832346167</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.09917715158461836</v>
+        <v>-0.1013192625134922</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.2871393780475687</v>
+        <v>-0.2795557166199737</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2184448883170997</v>
+        <v>0.2182016592947631</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.02501384799057631</v>
+        <v>-0.01730516558404061</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.3831493342948403</v>
+        <v>-0.3873770687213982</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.03062080305032645</v>
+        <v>-0.0182500952790325</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.09926188158084527</v>
+        <v>-0.1025268684858456</v>
       </c>
     </row>
     <row r="34">
@@ -1734,7 +1734,7 @@
         <v>-1.531497700262097</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-9.305722352959489</v>
+        <v>-9.305722352959483</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-25.36384163493435</v>
+        <v>-25.16257408630248</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-9.143828809848412</v>
+        <v>-9.062039309979856</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-15.13161075631825</v>
+        <v>-14.57997079913725</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-23.06190038585924</v>
+        <v>-22.64889752316783</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-8.892341402837202</v>
+        <v>-9.434948790509356</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-16.18506794440363</v>
+        <v>-16.98949867789917</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-20.98957491277441</v>
+        <v>-21.5885204849847</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-6.89388067937873</v>
+        <v>-6.723365941037003</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-13.7980507270826</v>
+        <v>-13.83467491184695</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>-9.856899188267075</v>
+        <v>-9.760705245052483</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>6.568657795611308</v>
+        <v>6.428229655420187</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-0.7888949883921192</v>
+        <v>-0.8870420501581768</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>-8.321233111561426</v>
+        <v>-7.823828695377356</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>5.599343194468331</v>
+        <v>4.916643561704378</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-4.023245214687437</v>
+        <v>-5.279960327404319</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>-10.90314060130173</v>
+        <v>-10.80210986590148</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>3.356334618520513</v>
+        <v>3.725701697974658</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-4.90573161733778</v>
+        <v>-4.704510883398588</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.03992150305683538</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.2224628888245376</v>
+        <v>-0.2224628888245377</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.3723555701479273</v>
@@ -1839,7 +1839,7 @@
         <v>-0.03500536894692936</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.2127004462542036</v>
+        <v>-0.2127004462542035</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.5981280511460473</v>
+        <v>-0.589856690145896</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.2122065628857216</v>
+        <v>-0.2092143831978701</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.3421804484473605</v>
+        <v>-0.33512005715597</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.447001822405946</v>
+        <v>-0.4462838629413509</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.1773463969170368</v>
+        <v>-0.1812980881438812</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.3168327599235575</v>
+        <v>-0.3281931277353637</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.4637404646161218</v>
+        <v>-0.4675689198086274</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1531040223054912</v>
+        <v>-0.142244387271303</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.3010888861901779</v>
+        <v>-0.2968780216594694</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>-0.2830014625422341</v>
+        <v>-0.2752661806731246</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.1864104085430995</v>
+        <v>0.1892495689675434</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.01899631578838859</v>
+        <v>-0.02512735919113905</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>-0.1841339557508815</v>
+        <v>-0.174095127247017</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1236598246009302</v>
+        <v>0.1126188390340727</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.09458632049929995</v>
+        <v>-0.119840548657184</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>-0.2665249215755889</v>
+        <v>-0.2654561453733396</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.08349042866608386</v>
+        <v>0.09008875104494794</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.1226380986250941</v>
+        <v>-0.1167011155739727</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-29.69791788307478</v>
+        <v>-31.69992514496325</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-6.776497376936273</v>
+        <v>-6.881061982059181</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-16.11021105129019</v>
+        <v>-16.60471367092588</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-16.78125748525715</v>
+        <v>-17.3018547969418</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.07791784344516037</v>
+        <v>0.172321063249283</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-3.252341282372609</v>
+        <v>-4.780701768498004</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-20.5244140672907</v>
+        <v>-20.7165468927931</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.6611724611141875</v>
+        <v>-0.6146476157324091</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-7.432739608735253</v>
+        <v>-7.081351036527257</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-12.71664469846433</v>
+        <v>-13.09706986215894</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>10.61774428426693</v>
+        <v>9.960615473907175</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.1368578384288256</v>
+        <v>0.3580601618305245</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>-1.953445896942036</v>
+        <v>-1.498715818870721</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>15.3041266722431</v>
+        <v>15.6004847291313</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>9.543675248294379</v>
+        <v>9.19804416543108</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>-8.76187883451076</v>
+        <v>-8.184357979755168</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>11.08114162660656</v>
+        <v>11.19653954787091</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>3.099840171282457</v>
+        <v>2.647440870939806</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.5577237207285021</v>
+        <v>-0.5768973103912308</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1245964516066255</v>
+        <v>-0.1243749483927961</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2971917992969219</v>
+        <v>-0.3010473398626655</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.2615476117819511</v>
+        <v>-0.2718220518307925</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.0001923216444703453</v>
+        <v>0.00268363904070341</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.05013112850288419</v>
+        <v>-0.07425593852161341</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.3502586831820798</v>
+        <v>-0.3523496978643475</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.01117521989992837</v>
+        <v>-0.01002812089139475</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.1224352634049631</v>
+        <v>-0.1172425619324425</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.2733322107155168</v>
+        <v>-0.2924862086647416</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.2479270086298011</v>
+        <v>0.2226204162426363</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.004550729674188856</v>
+        <v>0.009130797133723433</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>-0.0335643867913373</v>
+        <v>-0.02885027912175721</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.2690190067132124</v>
+        <v>0.2820588183473872</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1708493330048781</v>
+        <v>0.1651396539321717</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>-0.159247312425412</v>
+        <v>-0.1565528266342843</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.209161937754013</v>
+        <v>0.2102632570742717</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.05926624809784038</v>
+        <v>0.05030524700423482</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>-3.409652960407306</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-5.639294308989967</v>
+        <v>-5.639294308989962</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-16.84408418786153</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-20.9419943613642</v>
+        <v>-21.15901332802479</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-9.60301725318574</v>
+        <v>-9.699636640427723</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-10.16962206976789</v>
+        <v>-10.43565384418165</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-17.51523048721673</v>
+        <v>-17.49326860216723</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-5.821628941759435</v>
+        <v>-5.660233696260553</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-7.798879060714069</v>
+        <v>-7.842756949741046</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-18.40544437997948</v>
+        <v>-18.32512272836773</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-6.934593139825039</v>
+        <v>-6.949035217280707</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-8.375228209178099</v>
+        <v>-8.320634043349608</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-16.28614109036619</v>
+        <v>-16.335204737496</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-4.780172215190794</v>
+        <v>-4.766900509271374</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-5.24700093501622</v>
+        <v>-5.257368387316737</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-12.88536684283276</v>
+        <v>-12.78536657349687</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-1.299349344059971</v>
+        <v>-0.9983932286108425</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-3.496012904351189</v>
+        <v>-3.335849081865454</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-14.98504841729918</v>
+        <v>-15.20986914218006</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-3.483415542875572</v>
+        <v>-3.518517752197218</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-5.044053264814108</v>
+        <v>-4.861831649496712</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>-0.07390826214194385</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.122238376434244</v>
+        <v>-0.1222383764342439</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.3860281821563634</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.4942837824164727</v>
+        <v>-0.5005622591755939</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.2289384095145013</v>
+        <v>-0.2291204683620447</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.2408555332826715</v>
+        <v>-0.2457921996304469</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.3709011812937699</v>
+        <v>-0.3692030131277695</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.1244152053723688</v>
+        <v>-0.1207261523107368</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.1637154050937684</v>
+        <v>-0.1659646596913011</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.4165221770949026</v>
+        <v>-0.4142084594594136</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.1571771330699306</v>
+        <v>-0.1561068063979617</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.1877144802033595</v>
+        <v>-0.1871186480066073</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.4096108393671844</v>
+        <v>-0.4089771217956359</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.1222697402361784</v>
+        <v>-0.119418529676131</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.1320724628960893</v>
+        <v>-0.1325765830409615</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.2865790685290369</v>
+        <v>-0.2832795041140725</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.03049798577336665</v>
+        <v>-0.02229076821246182</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.07592215446124796</v>
+        <v>-0.07454149774419581</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.3532857467376269</v>
+        <v>-0.354686182246191</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.08209211626499836</v>
+        <v>-0.08322637311307829</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.1172468313778424</v>
+        <v>-0.1150185852009327</v>
       </c>
     </row>
     <row r="52">
